--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>792496.0364430839</v>
+        <v>790060.3995193767</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11528160.74076268</v>
+        <v>11528160.74076267</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801397</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>207.8032340316356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>169.0903780836773</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693916</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>397.4331184697759</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>118.2708408728594</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>78.02165764872451</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>45.9937505897327</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>20.92365879439145</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380459</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.60662835550659</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>3.171820953549126</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>22.60777203238041</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>97.97552699114111</v>
       </c>
       <c r="T11" t="n">
-        <v>12.7726269681491</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.753166794035295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009503</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>71.4225542653701</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>79.00824149146347</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754665</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.3210644635305</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="F16" t="n">
-        <v>21.36691228967345</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833831</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>26.13627195705829</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695565</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182108</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833694</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>25.52471385612694</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819345</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189078</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>112.6683130937991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.3555494301564</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>131.7584887394951</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>95.12712756824574</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797025</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1758.295537883725</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1389.333020943313</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1031.067322336563</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1031.067322336563</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923658</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.034709923658</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2144.895377947847</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4431,28 +4431,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.6952191369613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
         <v>212.7293032143256</v>
@@ -4489,16 +4489,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.60866391532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.60866391532</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709433</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.125814008748</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.136263110731</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>861.3436839672011</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1935.366530930991</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C5" t="n">
-        <v>1566.404013990579</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1566.404013990579</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1180.615761392335</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4601,16 +4601,16 @@
         <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930991</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>482.9841991736007</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>332.8675597612649</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1758.654335645288</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1536.887720214815</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1247.784853340458</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>993.1003651345713</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>703.6831950976108</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X7" t="n">
-        <v>703.6831950976108</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y7" t="n">
-        <v>482.8906159540807</v>
+        <v>651.9203821015076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.00486941082</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.042352470408</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>920.7766538636577</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>534.9884012654134</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>124.0024964758058</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>112.9704503612063</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>283.7117895417166</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>283.7117895417166</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>283.7117895417166</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>136.8218420438062</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1535.258832689347</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1166.296315748935</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>808.0306171421848</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="G11" t="n">
         <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687098</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3813.686489053489</v>
+        <v>3622.786021971437</v>
       </c>
       <c r="U11" t="n">
-        <v>3813.686489053489</v>
+        <v>3369.295305604045</v>
       </c>
       <c r="V11" t="n">
-        <v>3482.623601709918</v>
+        <v>3038.232418260474</v>
       </c>
       <c r="W11" t="n">
-        <v>3482.623601709918</v>
+        <v>2685.46376299036</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2311.99800472928</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246918</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>78.5110662246918</v>
+        <v>477.1621322376497</v>
       </c>
       <c r="L12" t="n">
-        <v>480.11710868439</v>
+        <v>900.4499396649588</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282792</v>
+        <v>977.3905023848084</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1518.698809735875</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>908.7459793477005</v>
+        <v>203.8650582458538</v>
       </c>
       <c r="C13" t="n">
-        <v>739.8097964197937</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="D13" t="n">
-        <v>589.693157007458</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="E13" t="n">
-        <v>441.7800634250648</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>294.8901159271545</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457698</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288891</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
         <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014272</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014272</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.288681564318</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1855.288681564318</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1600.604193358431</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1311.18702332147</v>
+        <v>834.295653117641</v>
       </c>
       <c r="X13" t="n">
-        <v>1311.18702332147</v>
+        <v>606.3061022196237</v>
       </c>
       <c r="Y13" t="n">
-        <v>1090.39444417794</v>
+        <v>385.5135230760935</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>525.8973588994244</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.0780762226591</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>804.1418932947522</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>654.0252538824163</v>
+        <v>175.0061676818304</v>
       </c>
       <c r="E16" t="n">
-        <v>506.1121603000231</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880632</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439276</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.936290233389</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1375.519120196429</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1154.726541052899</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192548</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778174</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654816</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830886</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5753,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.455065717131</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892241</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768882</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944952</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>119.5992022965849</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>119.5992022965849</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>119.5992022965849</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473707</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="23">
@@ -5981,55 +5981,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739881</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702921</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804903</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613733</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,16 +6260,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797779</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510512</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.38585385471</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648823</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611862</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138447</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>666.6476097656489</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>516.5309703533133</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>368.6178767709202</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>368.6178767709203</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6923,43 +6923,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876725</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235168</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602307</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.74706939642</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.32989935946</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614423</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179122</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908933</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908934</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474264</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7567,10 +7567,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166296</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7643,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.589839328116501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>378.7585491187127</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>188.9914624112288</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.1463689976775</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>94.38254428285258</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>89.71507747034043</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372911</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728911</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537665</v>
       </c>
       <c r="F16" t="n">
-        <v>124.0541357332578</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823086</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016454</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.26917837023</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823223</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462227</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>55.7411224624386</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823089</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>139.4693302300289</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392193839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>33.76564955277378</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856253</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>72.11969353038209</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228711</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913872.6799700265</v>
+        <v>913872.6799700264</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>994261.7116268101</v>
+        <v>994261.7116268098</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>999733.5759904796</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>999733.5759904796</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>999733.5759904796</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>999733.5759904796</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>999733.5759904794</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="E2" t="n">
         <v>386954.4379713448</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="K2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="L2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="M2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="N2" t="n">
         <v>423751.9648372533</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>423751.9648372533</v>
       </c>
-      <c r="L2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372534</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372532</v>
-      </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185155</v>
+        <v>143114.139218515</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051385</v>
+        <v>166521.3471051391</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.2362355788</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115332</v>
+        <v>37377.3285511531</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848923</v>
+        <v>43782.40655848934</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224847</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1096595.768098394</v>
       </c>
       <c r="C6" t="n">
-        <v>232148.9776291986</v>
+        <v>232148.9776291984</v>
       </c>
       <c r="D6" t="n">
-        <v>232148.9776291983</v>
+        <v>232148.9776291982</v>
       </c>
       <c r="E6" t="n">
-        <v>146068.7213311824</v>
+        <v>145858.7570873383</v>
       </c>
       <c r="F6" t="n">
-        <v>142972.9608954087</v>
+        <v>142927.0558998424</v>
       </c>
       <c r="G6" t="n">
-        <v>299685.2225609616</v>
+        <v>299650.4846355257</v>
       </c>
       <c r="H6" t="n">
-        <v>310852.4587965403</v>
+        <v>310817.7208711045</v>
       </c>
       <c r="I6" t="n">
-        <v>310852.4587965401</v>
+        <v>310817.7208711046</v>
       </c>
       <c r="J6" t="n">
-        <v>93321.25639926294</v>
+        <v>93286.51847382708</v>
       </c>
       <c r="K6" t="n">
-        <v>310852.4587965403</v>
+        <v>310817.7208711046</v>
       </c>
       <c r="L6" t="n">
-        <v>310852.4587965404</v>
+        <v>310817.7208711045</v>
       </c>
       <c r="M6" t="n">
-        <v>273475.1302453871</v>
+        <v>273440.3923199514</v>
       </c>
       <c r="N6" t="n">
-        <v>267070.052238051</v>
+        <v>267035.3143126153</v>
       </c>
       <c r="O6" t="n">
-        <v>307829.1608193156</v>
+        <v>307794.4228938798</v>
       </c>
       <c r="P6" t="n">
-        <v>310852.4587965404</v>
+        <v>310817.7208711045</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086475</v>
+        <v>981.3883278086469</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,25 +26808,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012574</v>
+        <v>122.3935669012569</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218302</v>
+        <v>145.8707812218308</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26978,25 +26978,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063549</v>
+        <v>149.9868724063542</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173594</v>
+        <v>178.7569625173596</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063551</v>
+        <v>149.9868724063542</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.7569625173596</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063549</v>
+        <v>149.9868724063542</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173594</v>
+        <v>178.7569625173596</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.244477142669</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>199.0728117100758</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>117.4326202529137</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161596</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>9.442927271935503</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>28.16312177370973</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>111.7473676827174</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>248.6140137975877</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>328.3173099230216</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>96.41917990352164</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.570807888177247e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-8.526512829121203e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-4.698463840213662e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-3.599131043448146e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.558323840337531e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-4.242702848557863e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>3.240074875066057e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-3.519068035589452e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>3.000069328764867e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485645</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508987</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307176</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.8697634726051</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.0032542216965</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.6642913857418</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.509834189838</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.05348002944</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.750149461513</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.7692132059647</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783039</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310845</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>219.8517740430785</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>678.1177801147134</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>620.3452877431804</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205469</v>
+        <v>497.8817840205466</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071843</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697582</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619739</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.6467528263706</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.4993788973091</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570602</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.339672552826896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>574.9651909908048</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32090,16 +32090,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>248.629137007698</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>549.9198891312099</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745949</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.7799124276245</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584691</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.9552686077533</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.5171537062435</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.52095692156576</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512103</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>77.7177401210602</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>546.7760680313801</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>477.749043298736</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062166</v>
+        <v>363.9073766062164</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936556</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.18259316701824</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882112</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.87566713998341</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>436.4108112109305</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35738,16 +35738,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>106.0328925632536</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>407.3236446867654</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191348</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191345</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
